--- a/results/mp/logistic/corona/confidence/42/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,12 @@
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>crude</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -64,27 +61,18 @@
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -94,15 +82,15 @@
     <t>demand</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -112,64 +100,85 @@
     <t>the</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>join</t>
@@ -178,97 +187,67 @@
     <t>friends</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>our</t>
   </si>
   <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>are</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>?</t>
@@ -632,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7773972602739726</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -751,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -801,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7333333333333333</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,38 +830,38 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6052631578947368</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6">
-        <v>0.925</v>
-      </c>
-      <c r="L6">
-        <v>111</v>
-      </c>
-      <c r="M6">
-        <v>111</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -893,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,7 +880,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -919,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5833333333333334</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5675675675675675</v>
+        <v>0.4656084656084656</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8485639686684073</v>
+        <v>0.8375</v>
       </c>
       <c r="L9">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="M9">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,37 +1030,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4627659574468085</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C10">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8414634146341463</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4534883720930232</v>
+        <v>0.436046511627907</v>
       </c>
       <c r="C11">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D11">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.839622641509434</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4313725490196079</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3898305084745763</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8169014084507042</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3454545454545455</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.7948717948717948</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3392857142857143</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.302013422818792</v>
+        <v>0.1045576407506702</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>104</v>
+        <v>334</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7875</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L16">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,37 +1380,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2666666666666667</v>
+        <v>0.02191464821222607</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>848</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7708333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,37 +1430,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1888888888888889</v>
+        <v>0.01749271137026239</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>292</v>
+        <v>3033</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7674418604651163</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,37 +1480,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1547619047619048</v>
+        <v>0.01523487092678798</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>213</v>
+        <v>2327</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,37 +1530,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.07506702412868632</v>
+        <v>0.01516587677725119</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>345</v>
+        <v>2078</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.765625</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,37 +1580,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01813471502590673</v>
+        <v>0.0118006993006993</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E21">
-        <v>0.25</v>
+        <v>0.44</v>
       </c>
       <c r="F21">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3032</v>
+        <v>2261</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7265625</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L21">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,37 +1630,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01651143099068586</v>
+        <v>0.009237421383647798</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="E22">
-        <v>0.3</v>
+        <v>0.62</v>
       </c>
       <c r="F22">
-        <v>0.7</v>
+        <v>0.38</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2323</v>
+        <v>5041</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.725</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,37 +1680,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01642178046672429</v>
+        <v>0.008793969849246231</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E23">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="F23">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1138</v>
+        <v>2367</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,37 +1730,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01605288007554297</v>
+        <v>0.008527918781725888</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E24">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="F24">
-        <v>0.5800000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2084</v>
+        <v>4883</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.7021276595744681</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,37 +1780,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01138852387209812</v>
+        <v>0.007268553940321346</v>
       </c>
       <c r="C25">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2257</v>
+        <v>2595</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.6984126984126984</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,37 +1830,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009611612397018439</v>
+        <v>0.006984126984126984</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E26">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="F26">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>5049</v>
+        <v>3128</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6944444444444444</v>
+        <v>0.675</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,187 +1880,115 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.008620689655172414</v>
+        <v>0.006574313219065508</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F27">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3105</v>
+        <v>4231</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L27">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.638235294117647</v>
+      </c>
+      <c r="L28">
+        <v>217</v>
+      </c>
+      <c r="M28">
+        <v>217</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>0.606694560669456</v>
+      </c>
+      <c r="L29">
+        <v>145</v>
+      </c>
+      <c r="M29">
+        <v>145</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K27">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="L27">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.008173273395995096</v>
-      </c>
-      <c r="C28">
-        <v>40</v>
-      </c>
-      <c r="D28">
-        <v>142</v>
-      </c>
-      <c r="E28">
-        <v>0.72</v>
-      </c>
-      <c r="F28">
-        <v>0.28</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>4854</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28">
-        <v>0.6411764705882353</v>
-      </c>
-      <c r="L28">
-        <v>218</v>
-      </c>
-      <c r="M28">
-        <v>218</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.007268553940321346</v>
-      </c>
-      <c r="C29">
-        <v>19</v>
-      </c>
-      <c r="D29">
-        <v>78</v>
-      </c>
-      <c r="E29">
-        <v>0.76</v>
-      </c>
-      <c r="F29">
-        <v>0.24</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2595</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29">
-        <v>0.64</v>
-      </c>
-      <c r="L29">
-        <v>32</v>
-      </c>
-      <c r="M29">
-        <v>32</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.006794751640112465</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>89</v>
-      </c>
-      <c r="E30">
-        <v>0.67</v>
-      </c>
-      <c r="F30">
-        <v>0.33</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>4239</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K30">
-        <v>0.6276150627615062</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6020408163265306</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L31">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M31">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N31">
         <v>0.99</v>
@@ -2119,21 +2026,21 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.5757575757575758</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2145,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.574468085106383</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L33">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2171,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.5571428571428572</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2197,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.5393258426966292</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2223,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.5384615384615384</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2249,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.4901960784313725</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2275,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.4358974358974359</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2301,21 +2208,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.410958904109589</v>
+        <v>0.1693548387096774</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2327,220 +2234,220 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.3448275862068966</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="L40">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>38</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.1165644171779141</v>
+        <v>0.05048076923076923</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>144</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.06493506493506493</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>288</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.05301204819277108</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N43">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>393</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.04395604395604396</v>
+        <v>0.02540650406504065</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>522</v>
+        <v>959</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.03762541806020067</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="L45">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M45">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N45">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="O45">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1151</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="K46">
-        <v>0.02441505595116989</v>
+        <v>0.02351485148514851</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="M46">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="N46">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="O46">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>959</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.02391441157960982</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1551</v>
+        <v>880</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K48">
         <v>0.02223059532780708</v>
@@ -2566,314 +2473,236 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.02173913043478261</v>
+        <v>0.02097315436241611</v>
       </c>
       <c r="L49">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M49">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="N49">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="O49">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3105</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K50">
-        <v>0.02058111380145278</v>
+        <v>0.01604651162790698</v>
       </c>
       <c r="L50">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="M50">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="N50">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="O50">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>4854</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="K51">
-        <v>0.02027027027027027</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="O51">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1015</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="K52">
-        <v>0.01892225421637186</v>
+        <v>0.01563240170535291</v>
       </c>
       <c r="L52">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N52">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="O52">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2385</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="K53">
-        <v>0.01802507836990596</v>
+        <v>0.01504493942946463</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="N53">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="O53">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1253</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="K54">
-        <v>0.01590623691921306</v>
+        <v>0.01433185304804199</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="M54">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0.37</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2351</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="K55">
-        <v>0.01395673412421493</v>
+        <v>0.00979934671021932</v>
       </c>
       <c r="L55">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N55">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="O55">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>4239</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K56">
-        <v>0.01309616888193901</v>
+        <v>0.009202453987730062</v>
       </c>
       <c r="L56">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M56">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="N56">
-        <v>0.58</v>
+        <v>0.44</v>
       </c>
       <c r="O56">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>5049</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K57">
-        <v>0.01185395922238027</v>
+        <v>0.006550933508024894</v>
       </c>
       <c r="L57">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M57">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="N57">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="O57">
-        <v>0.5800000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K58">
-        <v>0.01138852387209812</v>
-      </c>
-      <c r="L58">
-        <v>26</v>
-      </c>
-      <c r="M58">
-        <v>52</v>
-      </c>
-      <c r="N58">
-        <v>0.5</v>
-      </c>
-      <c r="O58">
-        <v>0.5</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K59">
-        <v>0.01120971508640822</v>
-      </c>
-      <c r="L59">
-        <v>24</v>
-      </c>
-      <c r="M59">
-        <v>41</v>
-      </c>
-      <c r="N59">
-        <v>0.59</v>
-      </c>
-      <c r="O59">
-        <v>0.41</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K60">
-        <v>0.006227466404457555</v>
-      </c>
-      <c r="L60">
-        <v>19</v>
-      </c>
-      <c r="M60">
-        <v>75</v>
-      </c>
-      <c r="N60">
-        <v>0.25</v>
-      </c>
-      <c r="O60">
-        <v>0.75</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>3032</v>
+        <v>3033</v>
       </c>
     </row>
   </sheetData>
